--- a/artfynd/A 33126-2021.xlsx
+++ b/artfynd/A 33126-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,6 +3782,475 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112093192</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Fagerdal, Upl</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>639179.9128251362</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6701165.391882338</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112093193</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Fagerdal, Upl</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>639179.9128251362</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6701165.391882338</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112093190</v>
+      </c>
+      <c r="B28" t="n">
+        <v>85210</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3624</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Strimspindling</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cortinarius glaucopus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Schaeff. : Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Fagerdal, Upl</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>639179.9128251362</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6701165.391882338</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112093186</v>
+      </c>
+      <c r="B29" t="n">
+        <v>88909</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>720</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Violgubbe</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Gomphus clavatus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Fagerdal, Upl</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>639204.9761395331</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6701015.582563667</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Till stor del barkborredödat bestånd intill stort kalhygge</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Samuel Persson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33126-2021.xlsx
+++ b/artfynd/A 33126-2021.xlsx
@@ -3784,10 +3784,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112093192</v>
+        <v>112093190</v>
       </c>
       <c r="B26" t="n">
-        <v>90687</v>
+        <v>85210</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3800,21 +3800,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5964</v>
+        <v>3624</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112093193</v>
+        <v>112093171</v>
       </c>
       <c r="B27" t="n">
-        <v>89183</v>
+        <v>88909</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3912,25 +3912,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3215</v>
+        <v>720</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3939,14 +3939,14 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Fagerdal, Upl</t>
+          <t>Bladsätra, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>639179.9128251362</v>
+        <v>639204.9761395331</v>
       </c>
       <c r="R27" t="n">
-        <v>6701165.391882338</v>
+        <v>6701015.582563667</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3991,8 +3991,13 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Barkborredödat bestånd som även kantar mot ett stort kalhygge</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
@@ -4016,10 +4021,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112093190</v>
+        <v>112093192</v>
       </c>
       <c r="B28" t="n">
-        <v>85210</v>
+        <v>90687</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4032,21 +4037,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3624</v>
+        <v>5964</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4132,10 +4137,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112093186</v>
+        <v>112093193</v>
       </c>
       <c r="B29" t="n">
-        <v>88909</v>
+        <v>89183</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4144,25 +4149,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>720</v>
+        <v>3215</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4175,10 +4180,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>639204.9761395331</v>
+        <v>639179.9128251362</v>
       </c>
       <c r="R29" t="n">
-        <v>6701015.582563667</v>
+        <v>6701165.391882338</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4223,13 +4228,8 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Till stor del barkborredödat bestånd intill stort kalhygge</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>

--- a/artfynd/A 33126-2021.xlsx
+++ b/artfynd/A 33126-2021.xlsx
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>639179.9128251362</v>
+        <v>639180</v>
       </c>
       <c r="R26" t="n">
-        <v>6701165.391882338</v>
+        <v>6701165</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3860,19 +3860,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3900,10 +3890,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112093171</v>
+        <v>112093192</v>
       </c>
       <c r="B27" t="n">
-        <v>88909</v>
+        <v>90687</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3912,25 +3902,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>720</v>
+        <v>5964</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3939,14 +3929,14 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bladsätra, Upl</t>
+          <t>Fagerdal, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>639204.9761395331</v>
+        <v>639180</v>
       </c>
       <c r="R27" t="n">
-        <v>6701015.582563667</v>
+        <v>6701165</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3976,28 +3966,13 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Barkborredödat bestånd som även kantar mot ett stort kalhygge</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
@@ -4021,10 +3996,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112093192</v>
+        <v>112093171</v>
       </c>
       <c r="B28" t="n">
-        <v>90687</v>
+        <v>88909</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4033,25 +4008,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5964</v>
+        <v>720</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4060,14 +4035,14 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Fagerdal, Upl</t>
+          <t>Bladsätra, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>639179.9128251362</v>
+        <v>639205</v>
       </c>
       <c r="R28" t="n">
-        <v>6701165.391882338</v>
+        <v>6701016</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4097,23 +4072,18 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Barkborredödat bestånd som även kantar mot ett stort kalhygge</t>
         </is>
       </c>
       <c r="AD28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
@@ -4180,10 +4150,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>639179.9128251362</v>
+        <v>639180</v>
       </c>
       <c r="R29" t="n">
-        <v>6701165.391882338</v>
+        <v>6701165</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4213,19 +4183,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 33126-2021.xlsx
+++ b/artfynd/A 33126-2021.xlsx
@@ -3784,10 +3784,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112093190</v>
+        <v>112093186</v>
       </c>
       <c r="B26" t="n">
-        <v>85210</v>
+        <v>89043</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3796,25 +3796,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3624</v>
+        <v>720</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>639180</v>
+        <v>639205</v>
       </c>
       <c r="R26" t="n">
-        <v>6701165</v>
+        <v>6701016</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3865,8 +3865,13 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Till stor del barkborredödat bestånd intill stort kalhygge</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
@@ -3893,7 +3898,7 @@
         <v>112093192</v>
       </c>
       <c r="B27" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3996,10 +4001,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112093171</v>
+        <v>112093190</v>
       </c>
       <c r="B28" t="n">
-        <v>88909</v>
+        <v>85331</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4008,25 +4013,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>720</v>
+        <v>3624</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4035,14 +4040,14 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bladsätra, Upl</t>
+          <t>Fagerdal, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>639205</v>
+        <v>639180</v>
       </c>
       <c r="R28" t="n">
-        <v>6701016</v>
+        <v>6701165</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4077,13 +4082,8 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Barkborredödat bestånd som även kantar mot ett stort kalhygge</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>112093193</v>
       </c>
       <c r="B29" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>

--- a/artfynd/A 33126-2021.xlsx
+++ b/artfynd/A 33126-2021.xlsx
@@ -3784,10 +3784,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112093186</v>
+        <v>112093171</v>
       </c>
       <c r="B26" t="n">
-        <v>89043</v>
+        <v>89057</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Fagerdal, Upl</t>
+          <t>Bladsätra, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Till stor del barkborredödat bestånd intill stort kalhygge</t>
+          <t>Barkborredödat bestånd som även kantar mot ett stort kalhygge</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3898,7 +3898,7 @@
         <v>112093192</v>
       </c>
       <c r="B27" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>112093190</v>
       </c>
       <c r="B28" t="n">
-        <v>85331</v>
+        <v>85345</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>112093193</v>
       </c>
       <c r="B29" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>

--- a/artfynd/A 33126-2021.xlsx
+++ b/artfynd/A 33126-2021.xlsx
@@ -3895,10 +3895,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112093192</v>
+        <v>112093190</v>
       </c>
       <c r="B27" t="n">
-        <v>90835</v>
+        <v>85345</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3911,21 +3911,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5964</v>
+        <v>3624</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112093190</v>
+        <v>112093193</v>
       </c>
       <c r="B28" t="n">
-        <v>85345</v>
+        <v>89331</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4017,21 +4017,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3624</v>
+        <v>3215</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4107,10 +4107,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112093193</v>
+        <v>112093192</v>
       </c>
       <c r="B29" t="n">
-        <v>89331</v>
+        <v>90835</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4123,21 +4123,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
